--- a/biology/Zoologie/Choucador/Choucador.xlsx
+++ b/biology/Zoologie/Choucador/Choucador.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Choucador est le nom donné à plusieurs espèces d'oiseaux de genres variés, appartenant à la famille des Sturnidae, dans l'ordre des Passeriformes.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces oiseaux originaires du continent Africain ont un plumage luisant, ou revient souvent un splendide bleu marine, agrémenté de reflets verts ou violets. Certaines des espèces de choucadors sont également nommées spréos.
 Ils sont connus pour leur caractère très social et le brouhaha occasionné par leurs chants et battements d'ailes lorsqu'ils se rassemblent par milliers le soir dans des dortoirs communs. Même s'ils préfèrent les arbres pour dormir et y faire leurs nids ils n'hésitent pas à se rapprocher des villages quand ils en ont l'occasion. Le jour ils se séparent en petits groupes d'une douzaine d'individus et rejoignent d'autres espèces pour se restaurer de fruits et de baies. Ils possèdent un répertoire de chants des plus évolués composés de sons qui comprennent des imitations d'autres oiseaux et même celles de quelques primates. Certains captifs montrent même une étrange capacité à imiter la voix humaine. Pour harceler les rapaces et se défendre contre les prédateurs ils émettent en commun des cris rauques et puissants. Les choucadors, habituellement monogames, nourrissent les poussins en couple cependant 4 à 7 semaines même après qu'ils ont quitté le nid une vingtaine de jours après la naissance. 
@@ -543,7 +557,9 @@
           <t>Légende</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'image du choucador, certainement à cause de ses plumes bleues scintillantes, a souvent été assimilé à la légende de l'oiseau de pluie qui appellerait la pluie par un cri plaintif.
 </t>
@@ -574,7 +590,9 @@
           <t>Les choucadors de la CINFO</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Choucador de Burchell – Lamprotornis australis
 Choucador cendré – Lamprotornis unicolor
@@ -626,7 +644,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">http://www.oiseaux.net/oiseaux/choucador.splendide.html
 http://www.oiseaux.net/oiseaux/choucador.a.oreillons.bleus.html
